--- a/rusl.xlsx
+++ b/rusl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="127">
   <si>
     <t xml:space="preserve">[1] Согласен(сна) с автором                                                                       </t>
   </si>
@@ -369,15 +369,6 @@
     <t>unique(test$answer_text)[121]</t>
   </si>
   <si>
-    <t>if (test_test$answer_text[i] ==</t>
-  </si>
-  <si>
-    <t>){test_test$answer_text[i] &lt;- "</t>
-  </si>
-  <si>
-    <t>"}</t>
-  </si>
-  <si>
     <t>Согласен</t>
   </si>
   <si>
@@ -394,6 +385,18 @@
   </si>
   <si>
     <t>Cогласен</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>test_test[test_test$answer_text ==</t>
+  </si>
+  <si>
+    <t>&lt;- "</t>
+  </si>
+  <si>
+    <t>, "answer_text"]</t>
   </si>
 </sst>
 </file>
@@ -417,15 +420,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -433,14 +442,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,2015 +775,2765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.28515625" customWidth="1"/>
-    <col min="20" max="20" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="4.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="4.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="88.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <f>LEFT(A1,4)</f>
         <v xml:space="preserve">[1] </v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <f>RIGHT(D1,4)</f>
         <v>)[1]</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" t="str">
-        <f>K1&amp;N1&amp;Q1&amp;R1&amp;S1</f>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[1]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f>D1</f>
+        <v>unique(test$answer_text)[1]</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <f>L1</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <f>P1&amp;Q1&amp;R1&amp;S1&amp;T1&amp;U1</f>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[1], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B57" si="0">LEFT(A2,4)</f>
         <v xml:space="preserve">  [2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C47" si="1">RIGHT(D2,4)</f>
         <v>)[2]</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2:T57" si="2">K2&amp;N2&amp;Q2&amp;R2&amp;S2</f>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[2]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f t="shared" ref="Q2:Q57" si="2">D2</f>
+        <v>unique(test$answer_text)[2]</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <f>L2</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <f t="shared" ref="V2:V57" si="3">P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2</f>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[2], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  [3</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" si="1"/>
         <v>)[3]</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T3" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[3]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[3]</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f>L3</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[3], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  [8</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>)[8]</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[8]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[8]</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>L4</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[8], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  [9</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>)[9]</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R5" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[9]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[9]</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f>L5</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[9], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [10</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[10]</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[10]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[10]</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f>L6</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[10], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [19</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[19]</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[19]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[19]</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f>L7</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[19], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [21</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[21]</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" t="s">
-        <v>119</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[21]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[21]</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f>L8</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[21], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [22</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[22]</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S9" t="s">
-        <v>119</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[22]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[22]</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f>L9</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[22], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [24</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[24]</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>118</v>
-      </c>
-      <c r="R10" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" t="s">
-        <v>119</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[24]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[24]</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f>L10</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[24], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [26</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[26]</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" t="s">
-        <v>120</v>
-      </c>
-      <c r="S11" t="s">
-        <v>119</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[26]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[26]</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f>L11</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[26], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [28</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[28]</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R12" t="s">
-        <v>120</v>
-      </c>
-      <c r="S12" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[28]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[28]</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f>L12</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[28], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [29</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[29]</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>118</v>
-      </c>
-      <c r="R13" t="s">
-        <v>120</v>
-      </c>
-      <c r="S13" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[29]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[29]</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f>L13</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[29], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [33</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[33]</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>118</v>
-      </c>
-      <c r="R14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S14" t="s">
-        <v>119</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[33]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[33]</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f>L14</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[33], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [34</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[34]</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R15" t="s">
-        <v>121</v>
-      </c>
-      <c r="S15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[34]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[34]</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f>L15</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[34], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [35</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[35]</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>118</v>
-      </c>
-      <c r="R16" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T16" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[35]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[35]</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f>L16</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[35], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [40</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[40]</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>118</v>
-      </c>
-      <c r="R17" t="s">
-        <v>120</v>
-      </c>
-      <c r="S17" t="s">
-        <v>119</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[40]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[40]</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f>L17</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[40], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [41</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[41]</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R18" t="s">
-        <v>121</v>
-      </c>
-      <c r="S18" t="s">
-        <v>119</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[41]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[41]</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f>L18</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[41], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [42</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[42]</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R19" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T19" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[42]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[42]</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f>L19</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[42], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [44</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[44]</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>118</v>
-      </c>
-      <c r="R20" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" t="s">
-        <v>119</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[44]){test_test$answer_text[i] &lt;- "Cогласен"}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[44]</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" s="1" t="str">
+        <f>L20</f>
+        <v>Cогласен</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[44], "answer_text"]&lt;- "Cогласен"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [46</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[46]</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>118</v>
-      </c>
-      <c r="R21" t="s">
-        <v>120</v>
-      </c>
-      <c r="S21" t="s">
-        <v>119</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[46]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[46]</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T21" s="1" t="str">
+        <f>L21</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[46], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [47</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[47]</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>118</v>
-      </c>
-      <c r="R22" t="s">
-        <v>120</v>
-      </c>
-      <c r="S22" t="s">
-        <v>119</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[47]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[47]</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T22" s="1" t="str">
+        <f>L22</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[47], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [48</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[48]</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>118</v>
-      </c>
-      <c r="R23" t="s">
-        <v>120</v>
-      </c>
-      <c r="S23" t="s">
-        <v>119</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[48]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[48]</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T23" s="1" t="str">
+        <f>L23</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[48], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [51</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[51]</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N24" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R24" t="s">
-        <v>120</v>
-      </c>
-      <c r="S24" t="s">
-        <v>119</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[51]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[51]</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T24" s="1" t="str">
+        <f>L24</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[51], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [52</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[52]</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R25" t="s">
-        <v>121</v>
-      </c>
-      <c r="S25" t="s">
-        <v>119</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[52]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[52]</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T25" s="1" t="str">
+        <f>L25</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[52], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [53</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[53]</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>118</v>
-      </c>
-      <c r="R26" t="s">
-        <v>122</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T26" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[53]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[53]</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" s="1" t="str">
+        <f>L26</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[53], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [54</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[54]</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R27" t="s">
-        <v>121</v>
-      </c>
-      <c r="S27" t="s">
-        <v>119</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[54]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[54]</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T27" s="1" t="str">
+        <f>L27</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[54], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [55</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[55]</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>118</v>
-      </c>
-      <c r="R28" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T28" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[55]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[55]</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T28" s="1" t="str">
+        <f>L28</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[55], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [56</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[56]</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R29" t="s">
-        <v>121</v>
-      </c>
-      <c r="S29" t="s">
-        <v>119</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[56]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[56]</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f>L29</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[56], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [57</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[57]</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>118</v>
-      </c>
-      <c r="R30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[57]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[57]</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" s="1" t="str">
+        <f>L30</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[57], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [60</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[60]</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N31" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>118</v>
-      </c>
-      <c r="R31" t="s">
-        <v>120</v>
-      </c>
-      <c r="S31" t="s">
-        <v>119</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[60]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[60]</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T31" s="1" t="str">
+        <f>L31</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[60], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [62</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[62]</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N32" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>118</v>
-      </c>
-      <c r="R32" t="s">
-        <v>120</v>
-      </c>
-      <c r="S32" t="s">
-        <v>119</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[62]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[62]</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T32" s="1" t="str">
+        <f>L32</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[62], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [65</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[65]</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N33" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>118</v>
-      </c>
-      <c r="R33" t="s">
-        <v>120</v>
-      </c>
-      <c r="S33" t="s">
-        <v>119</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[65]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[65]</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f>L33</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[65], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [67</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[67]</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N34" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>118</v>
-      </c>
-      <c r="R34" t="s">
-        <v>120</v>
-      </c>
-      <c r="S34" t="s">
-        <v>119</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[67]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[67]</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T34" s="1" t="str">
+        <f>L34</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[67], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [68</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[68]</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N35" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>118</v>
-      </c>
-      <c r="R35" t="s">
-        <v>120</v>
-      </c>
-      <c r="S35" t="s">
-        <v>119</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[68]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[68]</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T35" s="1" t="str">
+        <f>L35</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[68], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [69</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[69]</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N36" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>118</v>
-      </c>
-      <c r="R36" t="s">
-        <v>120</v>
-      </c>
-      <c r="S36" t="s">
-        <v>119</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[69]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[69]</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T36" s="1" t="str">
+        <f>L36</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[69], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [71</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[71]</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N37" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R37" t="s">
-        <v>121</v>
-      </c>
-      <c r="S37" t="s">
-        <v>119</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[71]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[71]</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f>L37</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[71], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [75</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[75]</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N38" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>118</v>
-      </c>
-      <c r="R38" t="s">
-        <v>120</v>
-      </c>
-      <c r="S38" t="s">
-        <v>119</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[75]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[75]</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f>L38</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[75], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [77</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[77]</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N39" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>118</v>
-      </c>
-      <c r="R39" t="s">
-        <v>120</v>
-      </c>
-      <c r="S39" t="s">
-        <v>119</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[77]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[77]</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T39" s="1" t="str">
+        <f>L39</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[77], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [81</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[81]</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N40" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>118</v>
-      </c>
-      <c r="R40" t="s">
-        <v>120</v>
-      </c>
-      <c r="S40" t="s">
-        <v>119</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[81]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[81]</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f>L40</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[81], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [82</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[82]</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N41" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>118</v>
-      </c>
-      <c r="R41" t="s">
-        <v>120</v>
-      </c>
-      <c r="S41" t="s">
-        <v>119</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[82]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[82]</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T41" s="1" t="str">
+        <f>L41</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[82], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [90</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[90]</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R42" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42" t="s">
-        <v>119</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[90]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[90]</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T42" s="1" t="str">
+        <f>L42</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[90], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [92</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[92]</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="J43" s="3"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N43" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R43" t="s">
-        <v>120</v>
-      </c>
-      <c r="S43" t="s">
-        <v>119</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[92]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[92]</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T43" s="1" t="str">
+        <f>L43</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[92], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [93</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[93]</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N44" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>118</v>
-      </c>
-      <c r="R44" t="s">
-        <v>120</v>
-      </c>
-      <c r="S44" t="s">
-        <v>119</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[93]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[93]</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T44" s="1" t="str">
+        <f>L44</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[93], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [96</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[96]</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N45" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>118</v>
-      </c>
-      <c r="R45" t="s">
-        <v>120</v>
-      </c>
-      <c r="S45" t="s">
-        <v>119</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[96]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[96]</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T45" s="1" t="str">
+        <f>L45</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[96], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [97</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[97]</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N46" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>118</v>
-      </c>
-      <c r="R46" t="s">
-        <v>122</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T46" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[97]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[97]</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T46" s="1" t="str">
+        <f>L46</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[97], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> [98</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[98]</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[98]</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T47" s="1" t="str">
+        <f>L47</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[98], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[103</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" ref="C48:C57" si="4">RIGHT(D48,4)</f>
+        <v>103]</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N47" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[103]</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T48" s="1" t="str">
+        <f>L48</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[103], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[106</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>106]</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[106]</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T49" s="1" t="str">
+        <f>L49</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[106], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[107</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>107]</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[107]</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T50" s="1" t="str">
+        <f>L50</f>
+        <v>Хуже</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[107], "answer_text"]&lt;- "Хуже"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[109</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>109]</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="R47" t="s">
-        <v>121</v>
-      </c>
-      <c r="S47" t="s">
-        <v>119</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[98]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>[103</v>
-      </c>
-      <c r="C48" t="str">
-        <f>RIGHT(D48,4)</f>
-        <v>103]</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[109]</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T51" s="1" t="str">
+        <f>L51</f>
+        <v>Лучше</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[109], "answer_text"]&lt;- "Лучше"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[113</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>113]</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N48" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>118</v>
-      </c>
-      <c r="R48" t="s">
-        <v>120</v>
-      </c>
-      <c r="S48" t="s">
-        <v>119</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[103]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>[106</v>
-      </c>
-      <c r="C49" t="str">
-        <f>RIGHT(D49,4)</f>
-        <v>106]</v>
-      </c>
-      <c r="D49" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N49" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>118</v>
-      </c>
-      <c r="R49" t="s">
-        <v>120</v>
-      </c>
-      <c r="S49" t="s">
-        <v>119</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[106]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>[107</v>
-      </c>
-      <c r="C50" t="str">
-        <f>RIGHT(D50,4)</f>
-        <v>107]</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N50" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>118</v>
-      </c>
-      <c r="R50" t="s">
-        <v>122</v>
-      </c>
-      <c r="S50" t="s">
-        <v>119</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[107]){test_test$answer_text[i] &lt;- "Хуже"}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>[109</v>
-      </c>
-      <c r="C51" t="str">
-        <f>RIGHT(D51,4)</f>
-        <v>109]</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N51" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>118</v>
-      </c>
-      <c r="R51" t="s">
-        <v>121</v>
-      </c>
-      <c r="S51" t="s">
-        <v>119</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[109]){test_test$answer_text[i] &lt;- "Лучше"}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>[113</v>
-      </c>
-      <c r="C52" t="str">
-        <f>RIGHT(D52,4)</f>
-        <v>113]</v>
-      </c>
-      <c r="D52" t="s">
-        <v>111</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N52" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>118</v>
-      </c>
-      <c r="R52" t="s">
-        <v>120</v>
-      </c>
-      <c r="S52" t="s">
-        <v>119</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[113]){test_test$answer_text[i] &lt;- "Согласен"}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[113]</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T52" s="1" t="str">
+        <f>L52</f>
+        <v>Согласен</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[113], "answer_text"]&lt;- "Согласен"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[116</v>
       </c>
-      <c r="C53" t="str">
-        <f>RIGHT(D53,4)</f>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>116]</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N53" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>118</v>
-      </c>
-      <c r="R53">
+      <c r="J53" s="3"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="5">
         <v>9.5</v>
       </c>
-      <c r="S53" t="s">
-        <v>119</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[116]){test_test$answer_text[i] &lt;- "9.5"}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[116]</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T53" s="1">
+        <f>L53</f>
+        <v>9.5</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[116], "answer_text"]&lt;- "9,5"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[118</v>
       </c>
-      <c r="C54" t="str">
-        <f>RIGHT(D54,4)</f>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>118]</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N54" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>118</v>
-      </c>
-      <c r="R54">
+      <c r="J54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="5">
         <v>2</v>
       </c>
-      <c r="S54" t="s">
-        <v>119</v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[118]){test_test$answer_text[i] &lt;- "2"}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[118]</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T54" s="1">
+        <f>L54</f>
+        <v>2</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[118], "answer_text"]&lt;- "2"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[119</v>
       </c>
-      <c r="C55" t="str">
-        <f>RIGHT(D55,4)</f>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>119]</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N55" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>118</v>
-      </c>
-      <c r="R55">
+      <c r="J55" s="3"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="5">
         <v>4</v>
       </c>
-      <c r="S55" t="s">
-        <v>119</v>
-      </c>
-      <c r="T55" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[119]){test_test$answer_text[i] &lt;- "4"}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[119]</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T55" s="1">
+        <f>L55</f>
+        <v>4</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[119], "answer_text"]&lt;- "4"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[120</v>
       </c>
-      <c r="C56" t="str">
-        <f>RIGHT(D56,4)</f>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>120]</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N56" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>118</v>
-      </c>
-      <c r="R56">
+      <c r="J56" s="3"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="5">
         <v>6</v>
       </c>
-      <c r="S56" t="s">
-        <v>119</v>
-      </c>
-      <c r="T56" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[120]){test_test$answer_text[i] &lt;- "6"}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[120]</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T56" s="1">
+        <f>L56</f>
+        <v>6</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[120], "answer_text"]&lt;- "6"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>[121</v>
       </c>
-      <c r="C57" t="str">
-        <f>RIGHT(D57,4)</f>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>121]</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N57" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>118</v>
-      </c>
-      <c r="R57">
+      <c r="J57" s="3"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="5">
         <v>8</v>
       </c>
-      <c r="S57" t="s">
-        <v>119</v>
-      </c>
-      <c r="T57" t="str">
-        <f t="shared" si="2"/>
-        <v>if (test_test$answer_text[i] ==unique(test$answer_text)[121]){test_test$answer_text[i] &lt;- "8"}</v>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>unique(test$answer_text)[121]</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T57" s="1">
+        <f>L57</f>
+        <v>8</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>test_test[test_test$answer_text ==unique(test$answer_text)[121], "answer_text"]&lt;- "8"</v>
       </c>
     </row>
   </sheetData>
@@ -2775,13 +3557,13 @@
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F1" t="str">
         <f>C1&amp;D1&amp;E1</f>
@@ -2790,13 +3572,13 @@
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F60" si="0">C2&amp;D2&amp;E2</f>
@@ -2805,13 +3587,13 @@
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
@@ -2820,13 +3602,13 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2835,13 +3617,13 @@
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2850,13 +3632,13 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -2865,13 +3647,13 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2880,13 +3662,13 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2895,13 +3677,13 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -2910,13 +3692,13 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -2925,13 +3707,13 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -2940,13 +3722,13 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -2955,13 +3737,13 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2970,13 +3752,13 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2985,13 +3767,13 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -3000,13 +3782,13 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -3015,13 +3797,13 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -3030,13 +3812,13 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -3045,13 +3827,13 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -3060,13 +3842,13 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -3075,13 +3857,13 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -3090,13 +3872,13 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -3105,13 +3887,13 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
         <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -3120,13 +3902,13 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -3135,13 +3917,13 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -3150,13 +3932,13 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -3165,13 +3947,13 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -3180,13 +3962,13 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -3195,13 +3977,13 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -3210,13 +3992,13 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -3225,13 +4007,13 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
         <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -3240,13 +4022,13 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -3255,13 +4037,13 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -3270,13 +4052,13 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
         <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -3285,13 +4067,13 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -3300,13 +4082,13 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -3315,13 +4097,13 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
         <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -3330,13 +4112,13 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -3345,13 +4127,13 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -3360,13 +4142,13 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
         <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -3375,13 +4157,13 @@
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -3390,13 +4172,13 @@
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
         <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -3405,13 +4187,13 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -3420,13 +4202,13 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
         <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -3435,13 +4217,13 @@
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
         <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -3450,13 +4232,13 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -3465,13 +4247,13 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
         <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -3480,13 +4262,13 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
         <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -3495,13 +4277,13 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
         <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -3510,13 +4292,13 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
         <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -3525,13 +4307,13 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
         <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -3540,13 +4322,13 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -3555,13 +4337,13 @@
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -3570,13 +4352,13 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
         <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -3585,13 +4367,13 @@
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
         <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -3600,13 +4382,13 @@
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
         <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -3615,13 +4397,13 @@
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
         <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -3630,13 +4412,13 @@
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -3645,13 +4427,13 @@
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
         <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -3660,13 +4442,13 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
         <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
